--- a/TestData/login_pageTC.xlsx
+++ b/TestData/login_pageTC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\CCSC_Automation_15052024\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025C7C1-5A5C-44EA-8BDA-F7A1F0DCAE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E46764-6482-49AE-88D1-975D53C6FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,9 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/TestData/login_pageTC.xlsx
+++ b/TestData/login_pageTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E46764-6482-49AE-88D1-975D53C6FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E432C7-DC91-4B9A-A53C-E4A91CE192A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>mohini@mistpl.com</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>mohini123@mistpl.com</t>
+  </si>
+  <si>
+    <t>Lakhera1998</t>
   </si>
 </sst>
 </file>
@@ -382,14 +385,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -416,14 +421,15 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>12345</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8B631B76-DA81-4AC7-8415-DD9AAA9B067F}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{4B57E432-4969-4748-87B0-529712D90163}"/>
+    <hyperlink ref="D2" r:id="rId3" display="Lakhera@1998" xr:uid="{50FB69C8-70E3-47F9-AF17-D66CCABB38B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/login_pageTC.xlsx
+++ b/TestData/login_pageTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E432C7-DC91-4B9A-A53C-E4A91CE192A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732F208-C69D-43FA-A433-38EC635A4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>mohini@mistpl.com</t>
   </si>
@@ -42,10 +42,16 @@
     <t>Cpassword</t>
   </si>
   <si>
-    <t>mohini123@mistpl.com</t>
-  </si>
-  <si>
     <t>Lakhera1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -391,45 +397,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="E2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8B631B76-DA81-4AC7-8415-DD9AAA9B067F}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{4B57E432-4969-4748-87B0-529712D90163}"/>
-    <hyperlink ref="D2" r:id="rId3" display="Lakhera@1998" xr:uid="{50FB69C8-70E3-47F9-AF17-D66CCABB38B7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{ACEAC4E9-2840-46FC-AB86-8638B5D4EAA2}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A7657039-6DF1-4BF7-B1DA-F8207653C231}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00C40E84-0668-4D07-8808-F0CCD462ED2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/login_pageTC.xlsx
+++ b/TestData/login_pageTC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732F208-C69D-43FA-A433-38EC635A4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC91A393-C64F-46E8-8C47-CAF2F860A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>mohini@mistpl.com</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>lakherar171@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakhera@1998</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,13 +442,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>12345</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -450,6 +456,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{ACEAC4E9-2840-46FC-AB86-8638B5D4EAA2}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{A7657039-6DF1-4BF7-B1DA-F8207653C231}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{00C40E84-0668-4D07-8808-F0CCD462ED2C}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{5E91E3B3-6888-4C8E-9BFE-00B92C5C9DBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
